--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ProgramCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ProgramCodeProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D219D92-6D65-4DA6-89DF-D0D894055513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1BD79-7B8D-4696-8AFE-37BCC65A7EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>BackToList</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>RandomTxt1</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -617,13 +617,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -631,10 +631,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -643,13 +643,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -735,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37783694-A041-407B-AB51-2EE2885386A5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,13 +854,13 @@
         <v>9001</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>2023</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>24</v>
